--- a/mysql/后台名单.xlsx
+++ b/mysql/后台名单.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TJW\web\cloudPlatform\mysql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51F5B29-633B-4B8D-AD8B-22885D79AE72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D6DEA1-1192-4904-90A3-B32E101FDC25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3468" yWindow="4116" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,61 +25,64 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>用户名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>student</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>学号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>student1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>昵称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>小红</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>年级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>八年级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>班级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>F1800000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>邮箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1111@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>telephone</t>
+  </si>
+  <si>
+    <t>nickname</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>theGrade</t>
+  </si>
+  <si>
+    <t>theClass</t>
+  </si>
+  <si>
+    <t>sss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>753@qq.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -87,7 +90,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,6 +112,12 @@
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF881391"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -132,9 +141,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -416,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -429,33 +439,33 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
         <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>5170000</v>
@@ -464,27 +474,54 @@
         <v>111</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>111</v>
+      </c>
+      <c r="D3">
+        <v>11111</v>
+      </c>
+      <c r="E3">
+        <v>2222</v>
+      </c>
+      <c r="F3">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>13</v>
+      <c r="G3">
+        <v>444</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" xr:uid="{793CF534-D09B-4304-9233-F9172B9AD8F7}"/>
+    <hyperlink ref="H3" r:id="rId2" xr:uid="{E311CBC8-DBDA-4B79-8B4D-1063DC05196E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>